--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372166.6418445017</v>
+        <v>375532.3614143285</v>
       </c>
     </row>
     <row r="7">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T2" t="n">
         <v>39.58387696184059</v>
@@ -716,7 +716,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,73 +735,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F3" t="n">
+      <c r="X3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>39.58387696184059</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>34.11888750173132</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H7" t="n">
         <v>39.58387696184059</v>
@@ -1078,7 +1078,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
         <v>39.58387696184059</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.58387696184059</v>
+        <v>24.87477961344436</v>
       </c>
     </row>
     <row r="9">
@@ -1221,55 +1221,55 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
         <v>39.58387696184059</v>
@@ -1315,7 +1315,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,76 +1446,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F12" t="n">
+      <c r="W12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G12" t="n">
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="U13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,58 +1698,58 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="V15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H15" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="W15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="X15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.790450447682262</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,31 +2123,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>134.6855069843875</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>240.2580556792261</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>12.20112622735862</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2494,43 +2494,43 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2697,7 +2697,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,73 +2710,73 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,17 +2840,17 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>39.77286532336496</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>36.43923176655766</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>130.0567675788275</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>121.525102284894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,25 +3269,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>157.1746589509483</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C38" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>198.2885478252619</v>
+      </c>
+      <c r="D41" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="C41" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>198.2885478252619</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.5716653705474</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>118.0570673672068</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,73 +3977,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>24.87477961344436</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F44" t="n">
+      <c r="X44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G44" t="n">
+      <c r="Y44" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,16 +4331,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L2" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
         <v>158.3355078473624</v>
@@ -4355,13 +4355,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U2" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V2" t="n">
         <v>3.166710156947247</v>
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
         <v>3.166710156947247</v>
@@ -4410,16 +4410,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N3" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
         <v>79.95943146291799</v>
@@ -4446,13 +4446,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="4">
@@ -4477,16 +4477,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4568,16 +4568,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
         <v>158.3355078473624</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C6" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
         <v>78.36807964162378</v>
       </c>
       <c r="E6" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F6" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G6" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I6" t="n">
         <v>3.920842809732961</v>
@@ -4653,10 +4653,10 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O6" t="n">
         <v>79.95943146291799</v>
@@ -4683,13 +4683,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4714,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4805,46 +4805,46 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>81.54278654139161</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>123.1178524655551</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>83.13413836268582</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U8" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V8" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W8" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="X8" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="Y8" t="n">
         <v>3.166710156947247</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
         <v>3.166710156947247</v>
@@ -4884,49 +4884,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N9" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="P9" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P9" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
@@ -5045,7 +5045,7 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M11" t="n">
         <v>79.95943146291799</v>
@@ -5054,7 +5054,7 @@
         <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
@@ -5063,28 +5063,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S11" t="n">
-        <v>148.2438924791353</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T11" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U11" t="n">
-        <v>108.260178376266</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="V11" t="n">
-        <v>108.260178376266</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="W11" t="n">
-        <v>108.260178376266</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="X11" t="n">
-        <v>83.13413836268582</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.15042425981653</v>
+        <v>15.2366994040306</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
@@ -5127,13 +5127,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>120.7308247336138</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
         <v>158.3355078473624</v>
@@ -5154,16 +5154,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J13" t="n">
         <v>3.166710156947247</v>
@@ -5218,31 +5218,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R13" t="n">
         <v>93.21247408113457</v>
       </c>
       <c r="S13" t="n">
+        <v>93.21247408113457</v>
+      </c>
+      <c r="T13" t="n">
         <v>53.22875997826529</v>
       </c>
-      <c r="T13" t="n">
-        <v>13.245045875396</v>
-      </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>108.260178376266</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H14" t="n">
         <v>3.166710156947247</v>
@@ -5291,37 +5291,37 @@
         <v>81.54278654139161</v>
       </c>
       <c r="O14" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V14" t="n">
-        <v>123.1178524655551</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W14" t="n">
-        <v>83.13413836268582</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X14" t="n">
-        <v>43.15042425981653</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
         <v>3.166710156947247</v>
@@ -5358,19 +5358,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L15" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N15" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>120.7308247336138</v>
-      </c>
-      <c r="N15" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="O15" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P15" t="n">
         <v>158.3355078473624</v>
@@ -5379,28 +5379,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J16" t="n">
         <v>3.166710156947247</v>
@@ -5455,31 +5455,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.1178524655551</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>83.13413836268582</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>43.15042425981653</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.60056303742164</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C17" t="n">
-        <v>15.60056303742164</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D17" t="n">
-        <v>15.60056303742164</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E17" t="n">
-        <v>15.60056303742164</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F17" t="n">
-        <v>15.60056303742164</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G17" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L17" t="n">
         <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
+        <v>45.45613755060546</v>
+      </c>
+      <c r="N17" t="n">
         <v>89.14698820604177</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="O17" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
@@ -5552,13 +5552,13 @@
         <v>176.5286895169144</v>
       </c>
       <c r="W17" t="n">
-        <v>149.3344187320537</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X17" t="n">
-        <v>104.756466833843</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.17851493563234</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G18" t="n">
         <v>3.530573790338288</v>
@@ -5598,19 +5598,19 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
         <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
@@ -5622,22 +5622,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>92.68647758675968</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5692,28 @@
         <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U19" t="n">
         <v>4.329008585976936</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
         <v>3.530573790338288</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5862,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.8126749707503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6075,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>582.7883107557723</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6178,19 +6178,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6424,10 +6424,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V29" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,10 +6552,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>927.2498506959315</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>719.3983504903987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>511.6380517254448</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6643,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>150.6516154120587</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>150.6516154120587</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>150.6516154120587</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,13 +6789,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X33" t="n">
-        <v>485.4562706347935</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7138,7 +7138,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>75.41817578802664</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2696759935595</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>75.41817578802664</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y39" t="n">
-        <v>75.41817578802664</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="40">
@@ -7357,7 +7357,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>696.9178196240985</v>
+      </c>
+      <c r="C41" t="n">
+        <v>496.626357174339</v>
+      </c>
+      <c r="D41" t="n">
         <v>257.7718183255803</v>
       </c>
-      <c r="C41" t="n">
-        <v>18.91727947682168</v>
-      </c>
-      <c r="D41" t="n">
-        <v>18.91727947682168</v>
-      </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
         <v>18.91727947682168</v>
@@ -7448,13 +7448,13 @@
         <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="X41" t="n">
-        <v>496.626357174339</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>696.9178196240985</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>352.6077637634042</v>
+        <v>302.0285566069865</v>
       </c>
       <c r="C42" t="n">
-        <v>178.1547344822772</v>
+        <v>127.5755273258594</v>
       </c>
       <c r="D42" t="n">
-        <v>178.1547344822772</v>
+        <v>127.5755273258594</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>127.5755273258594</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>127.5755273258594</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>127.5755273258594</v>
       </c>
       <c r="H42" t="n">
         <v>18.91727947682168</v>
@@ -7491,22 +7491,22 @@
         <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>248.8803853451708</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>482.9817188708391</v>
       </c>
       <c r="N42" t="n">
-        <v>763.2204962277333</v>
+        <v>717.0830523965075</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7521,19 +7521,19 @@
         <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>717.6403555774732</v>
       </c>
       <c r="V42" t="n">
-        <v>710.7118656093414</v>
+        <v>717.6403555774732</v>
       </c>
       <c r="W42" t="n">
-        <v>471.8573267605827</v>
+        <v>717.6403555774732</v>
       </c>
       <c r="X42" t="n">
-        <v>471.8573267605827</v>
+        <v>509.7888553719404</v>
       </c>
       <c r="Y42" t="n">
-        <v>352.6077637634042</v>
+        <v>302.0285566069865</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="C44" t="n">
-        <v>123.1178524655551</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D44" t="n">
-        <v>123.1178524655551</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E44" t="n">
-        <v>83.13413836268582</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
         <v>3.166710156947247</v>
@@ -7667,31 +7667,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W44" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X44" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E45" t="n">
         <v>3.166710156947247</v>
@@ -7731,31 +7731,31 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="N45" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="M45" t="n">
-        <v>42.35474834916943</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="O45" t="n">
-        <v>120.7308247336138</v>
-      </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
         <v>118.3517937444931</v>
@@ -7764,13 +7764,13 @@
         <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="X45" t="n">
         <v>78.36807964162378</v>
       </c>
-      <c r="X45" t="n">
-        <v>38.38436553875449</v>
-      </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F46" t="n">
         <v>3.166710156947247</v>
@@ -7840,16 +7840,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X46" t="n">
         <v>83.13413836268582</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.15042425981653</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,10 +8067,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>173.5582843761708</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8301,13 +8301,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P6" t="n">
         <v>173.5582843761708</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L8" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N11" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,16 +8775,16 @@
         <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8939,10 +8939,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>269.2175241529953</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>273.5452359758195</v>
@@ -9179,7 +9179,7 @@
         <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,13 +10200,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7873861227846</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>303.5925706376236</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -11394,7 +11394,7 @@
         <v>171.9589358120561</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22595,7 +22595,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T2" t="n">
         <v>183.5119726022908</v>
@@ -22604,7 +22604,7 @@
         <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>292.8867796421457</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22686,10 +22686,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
         <v>166.0988188154638</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22863,13 +22863,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22881,7 +22881,7 @@
         <v>78.11655673476514</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H7" t="n">
         <v>122.643295545599</v>
@@ -22966,7 +22966,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>115.0036391131605</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
         <v>169.4361926244048</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.654061694213</v>
+        <v>361.3631590426092</v>
       </c>
     </row>
     <row r="9">
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23191,10 +23191,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
         <v>115.8665979654177</v>
@@ -23203,7 +23203,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
         <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>238.4201626490047</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>344.8563210650246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,22 +23334,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>113.3261780629074</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>145.472922565994</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23458,19 +23458,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>188.3617124664409</v>
       </c>
       <c r="U13" t="n">
-        <v>276.3414769952266</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>314.6000225023228</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,16 +23628,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23695,16 +23695,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>322.318640640401</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,16 +23814,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23862,16 +23862,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,22 +23932,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>38.02299200392821</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,16 +24102,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,7 +24145,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>166.6179900624853</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,22 +24254,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>132.8680861660253</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,10 +24500,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24573,7 +24573,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24701,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>287.97939314677</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,22 +24810,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>215.2557513943619</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X32" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>27.58831287657347</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>84.15759349241037</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,25 +25157,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>15.53384003736741</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,16 +25284,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>117.13283663728</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>83.55624250011644</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25518,13 +25518,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>166.9843439457457</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>118.2170481604119</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9524208921511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>4.663778865949084</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>87.6256284100976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,19 +25865,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>382.001266128267</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,7 +25950,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>166.1891082416369</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26080,16 +26080,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X46" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355323.8049462886</v>
+        <v>355323.8049462884</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498779.7423193563</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498779.7423193567</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498779.7423193565</v>
+        <v>498779.7423193567</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495544.1393643908</v>
+        <v>495544.1393643906</v>
       </c>
     </row>
     <row r="16">
@@ -26320,13 +26320,13 @@
         <v>88817.09956719898</v>
       </c>
       <c r="E2" t="n">
+        <v>88817.09956719895</v>
+      </c>
+      <c r="F2" t="n">
         <v>88817.09956719897</v>
       </c>
-      <c r="F2" t="n">
-        <v>88817.09956719899</v>
-      </c>
       <c r="G2" t="n">
-        <v>89664.75401339904</v>
+        <v>89664.75401339903</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26350,7 +26350,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="O2" t="n">
-        <v>123812.9700113465</v>
+        <v>123812.9700113464</v>
       </c>
       <c r="P2" t="n">
         <v>88817.09956719901</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30040.43091242292</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="C4" t="n">
-        <v>30040.43091242292</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="D4" t="n">
-        <v>30040.43091242292</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="E4" t="n">
-        <v>30040.43091242292</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="F4" t="n">
-        <v>30040.43091242292</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="G4" t="n">
-        <v>30335.54086810259</v>
+        <v>29986.26547774717</v>
       </c>
       <c r="H4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
-        <v>42224.20440885387</v>
+        <v>41739.48609806578</v>
       </c>
       <c r="P4" t="n">
-        <v>30040.43091242292</v>
+        <v>29694.5175950296</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9476.901336413284</v>
+        <v>9822.814653806592</v>
       </c>
       <c r="C6" t="n">
-        <v>22742.36893549614</v>
+        <v>23088.28225288946</v>
       </c>
       <c r="D6" t="n">
-        <v>22742.36893549615</v>
+        <v>23088.28225288948</v>
       </c>
       <c r="E6" t="n">
-        <v>56369.96893549614</v>
+        <v>56715.88225288944</v>
       </c>
       <c r="F6" t="n">
-        <v>56369.96893549617</v>
+        <v>56715.88225288945</v>
       </c>
       <c r="G6" t="n">
-        <v>55399.35751516455</v>
+        <v>55748.63290551997</v>
       </c>
       <c r="H6" t="n">
-        <v>14340.92205395661</v>
+        <v>14828.84330851641</v>
       </c>
       <c r="I6" t="n">
-        <v>67461.48902428165</v>
+        <v>67949.41027884146</v>
       </c>
       <c r="J6" t="n">
-        <v>57104.60512047785</v>
+        <v>57592.52637503769</v>
       </c>
       <c r="K6" t="n">
-        <v>67461.48902428165</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="L6" t="n">
-        <v>67461.48902428165</v>
+        <v>67949.41027884149</v>
       </c>
       <c r="M6" t="n">
-        <v>67461.48902428168</v>
+        <v>67949.41027884145</v>
       </c>
       <c r="N6" t="n">
-        <v>67461.48902428165</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="O6" t="n">
-        <v>67211.63320010813</v>
+        <v>67696.3515108962</v>
       </c>
       <c r="P6" t="n">
-        <v>56369.96893549618</v>
+        <v>56715.8822528895</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L2" t="n">
-        <v>37.98452839772582</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>39.58387696184059</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P6" t="n">
         <v>39.58387696184059</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>37.98452839772582</v>
-      </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M11" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M11" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="N11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="O12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O12" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P14" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="P15" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>44.13217237922859</v>
@@ -35899,7 +35899,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="P18" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,16 +37868,16 @@
         <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>156.4456740394513</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>160.9963261931792</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
